--- a/InputData/messages.xlsx
+++ b/InputData/messages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattd\IdeaProjects\BoG\hdg-chatbot\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B3A8C-FE1D-4D3F-868D-EBE426A528DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED014FE-A190-4831-AA67-538D842F60FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
+    <workbookView xWindow="10068" yWindow="1284" windowWidth="10836" windowHeight="8964" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -63,16 +63,88 @@
     <t>image</t>
   </si>
   <si>
-    <t>no image</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>image 2</t>
   </si>
   <si>
-    <t>no image 2</t>
+    <t>KEYWORDS</t>
+  </si>
+  <si>
+    <t>ISQUESTION</t>
+  </si>
+  <si>
+    <t>(Welcome Message) What would you like to learn about? 1. (emoji) Exercise - brief description2. (emoji) WASH- brief description3. (emoji) Nutrition-brief description4. (emoji) Maternal Infant Care-brief description5. (emoji) Mental Health- brief description</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5, 6</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>Nutrition</t>
+  </si>
+  <si>
+    <t>Maternal Infant Care</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>next exercise</t>
+  </si>
+  <si>
+    <t>next wash</t>
+  </si>
+  <si>
+    <t>next nutrition</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>low data wash</t>
+  </si>
+  <si>
+    <t>low data nutrition</t>
+  </si>
+  <si>
+    <t>low data welcome</t>
+  </si>
+  <si>
+    <t>low data exercise</t>
+  </si>
+  <si>
+    <t>low data maternal health</t>
+  </si>
+  <si>
+    <t>low data mental halth</t>
+  </si>
+  <si>
+    <t>low data exer 2</t>
+  </si>
+  <si>
+    <t>low data wash 2</t>
+  </si>
+  <si>
+    <t>low daya nutrition 2</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>google.com</t>
   </si>
 </sst>
 </file>
@@ -424,15 +496,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA6A2BB-9C23-4233-A3B0-E435AB329052}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,48 +534,248 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/messages.xlsx
+++ b/InputData/messages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattd\IdeaProjects\BoG\hdg-chatbot\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexb8z/Downloads/hdg-chatbot/InputData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9261FDD6-C97F-45C5-AB4F-F4A5DFF785F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD9873-AC10-2349-BE0E-0E70587DCFAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5532" yWindow="2304" windowWidth="15948" windowHeight="8964" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
+    <workbookView xWindow="5540" yWindow="2300" windowWidth="15940" windowHeight="8960" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -69,9 +60,6 @@
     <t>KEYWORDS</t>
   </si>
   <si>
-    <t>ISQUESTION</t>
-  </si>
-  <si>
     <t>(Welcome Message) What would you like to learn about? 1. (emoji) Exercise - brief description2. (emoji) WASH- brief description3. (emoji) Nutrition-brief description4. (emoji) Maternal Infant Care-brief description5. (emoji) Mental Health- brief description</t>
   </si>
   <si>
@@ -145,6 +133,21 @@
   </si>
   <si>
     <t>google.com</t>
+  </si>
+  <si>
+    <t>MESSAGETYPE</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>final-message</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>splitting</t>
   </si>
 </sst>
 </file>
@@ -499,20 +502,20 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,21 +541,21 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -561,18 +564,21 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,21 +593,21 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -613,21 +619,21 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -639,21 +645,21 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -665,18 +671,18 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -691,18 +697,18 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -717,21 +723,21 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -743,21 +749,21 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -769,10 +775,10 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/messages.xlsx
+++ b/InputData/messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexb8z/Downloads/hdg-chatbot/InputData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD9873-AC10-2349-BE0E-0E70587DCFAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EB776B-62A5-774A-B9CC-D4DB07F40D94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5540" yWindow="2300" windowWidth="15940" windowHeight="8960" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -48,24 +48,12 @@
     <t>LOW DATA</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>image 2</t>
-  </si>
-  <si>
     <t>KEYWORDS</t>
   </si>
   <si>
     <t>(Welcome Message) What would you like to learn about? 1. (emoji) Exercise - brief description2. (emoji) WASH- brief description3. (emoji) Nutrition-brief description4. (emoji) Maternal Infant Care-brief description5. (emoji) Mental Health- brief description</t>
   </si>
   <si>
-    <t>2, 3, 4, 5, 6</t>
-  </si>
-  <si>
     <t>Exercise</t>
   </si>
   <si>
@@ -90,18 +78,6 @@
     <t>next nutrition</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
     <t>low data wash</t>
   </si>
   <si>
@@ -117,24 +93,15 @@
     <t>low data maternal health</t>
   </si>
   <si>
-    <t>low data mental halth</t>
-  </si>
-  <si>
     <t>low data exer 2</t>
   </si>
   <si>
     <t>low data wash 2</t>
   </si>
   <si>
-    <t>low daya nutrition 2</t>
-  </si>
-  <si>
     <t>1,2,3,4,5</t>
   </si>
   <si>
-    <t>google.com</t>
-  </si>
-  <si>
     <t>MESSAGETYPE</t>
   </si>
   <si>
@@ -147,17 +114,184 @@
     <t>message</t>
   </si>
   <si>
-    <t>splitting</t>
+    <t>what is 1 plus 1??? a) 2 b) 3 c) 10 d) 99</t>
+  </si>
+  <si>
+    <t>https://blueseatblogs.com/wp-content/uploads/2018/07/consciousness-709143-400x300.jpg</t>
+  </si>
+  <si>
+    <t>103, 102, 102, 102</t>
+  </si>
+  <si>
+    <t>type a please</t>
+  </si>
+  <si>
+    <t>a,b,c,d</t>
+  </si>
+  <si>
+    <t>favorite cheese?? a) pepper jack (CORRECT) b) gouda c) im lactose intolerant</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/2836/2982/products/pepper-jack-cheese-recipe_grande.jpg</t>
+  </si>
+  <si>
+    <t>104, 103, 103</t>
+  </si>
+  <si>
+    <t>the answer is pepper jack</t>
+  </si>
+  <si>
+    <t>a, b, c</t>
+  </si>
+  <si>
+    <t>this is a picture of a dog</t>
+  </si>
+  <si>
+    <t>https://cdn.i-scmp.com/sites/default/files/styles/1200x800/public/d8/images/methode/2020/10/16/41e9b47c-07af-11eb-afc8-92e0da0ef1c3_image_hires_155550.jpg</t>
+  </si>
+  <si>
+    <t>you didn't get a picture of a dog</t>
+  </si>
+  <si>
+    <t>WORST exercise??? a) running b) also running c) not running (why??)</t>
+  </si>
+  <si>
+    <t>106, 106, 105</t>
+  </si>
+  <si>
+    <t>put a or b</t>
+  </si>
+  <si>
+    <t>fav twice tt a) fancy b) feel special c) dtna d) heart shaker e) tt f) other</t>
+  </si>
+  <si>
+    <t>https://image-cdn.hypb.st/https%3A%2F%2Fhypebeast.com%2Fwp-content%2Fblogs.dir%2F6%2Ffiles%2F2020%2F10%2Ftwice-eyes-wide-open-album-interview-1.jpg</t>
+  </si>
+  <si>
+    <t>107, 107, 107, 107, 107, 107</t>
+  </si>
+  <si>
+    <t>any answer choice is correct (a thru f)</t>
+  </si>
+  <si>
+    <t>a, b, c, d, e, f</t>
+  </si>
+  <si>
+    <t>What is the capital of New Jersey? a) Нью Джерси, b) Trenton, c) New York City</t>
+  </si>
+  <si>
+    <t>Trenton duh (type b tho)</t>
+  </si>
+  <si>
+    <t>Небо самолётам а цензура для _____? a) артиста b) калашниковов c) мам</t>
+  </si>
+  <si>
+    <t>109, 108, 110</t>
+  </si>
+  <si>
+    <t>артиста &lt;4 (tybe a but stream юморист by FACE)</t>
+  </si>
+  <si>
+    <t>como estas a) muy bien b) no estoy bien :'(</t>
+  </si>
+  <si>
+    <t>110, 109</t>
+  </si>
+  <si>
+    <t>mental wellness &lt;3 put a</t>
+  </si>
+  <si>
+    <t>a, b</t>
+  </si>
+  <si>
+    <t>恭喜发财红包拿来 This is the last message</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/81HZagdPKwL._AC_SY355_.jpg</t>
+  </si>
+  <si>
+    <t>:))))))</t>
+  </si>
+  <si>
+    <t>low data nutrition 2</t>
+  </si>
+  <si>
+    <t>low data mental health</t>
+  </si>
+  <si>
+    <t>Doth thee consent to receiving messages from this numb'r. Replyeth with "i consent" if 't be true thee doth</t>
+  </si>
+  <si>
+    <t>low data do you consent</t>
+  </si>
+  <si>
+    <t>data collect? pls?</t>
+  </si>
+  <si>
+    <t>low data data?</t>
+  </si>
+  <si>
+    <t>Exercise Diagnostic</t>
+  </si>
+  <si>
+    <t>WASH Diagnostic</t>
+  </si>
+  <si>
+    <t>Nutrition Diagnostic</t>
+  </si>
+  <si>
+    <t>Maternal Infant Care Diagnostic</t>
+  </si>
+  <si>
+    <t>Mental Health Diagnostic</t>
+  </si>
+  <si>
+    <t>Here is a list of commands: restart, completed, commands</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>100, 200, 300, 400, 500</t>
+  </si>
+  <si>
+    <t>108, 107, 107</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,13 +314,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA6A2BB-9C23-4233-A3B0-E435AB329052}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -516,272 +657,713 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>101</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>101</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>102</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3">
+        <v>101</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>103</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3">
+        <v>102</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>104</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3">
+        <v>105</v>
+      </c>
+      <c r="E7" s="3">
+        <v>103</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3">
+        <v>104</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3">
+        <v>105</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="5">
+        <v>106</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3">
+        <v>107</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>109</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3">
+        <v>108</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>110</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>109</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>200</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>200</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>300</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>300</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>400</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>500</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>1100</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>1200</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>1300</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1300</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>1400</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>1500</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>911</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
+        <v>911</v>
+      </c>
+      <c r="E27" s="5">
+        <v>911</v>
+      </c>
+      <c r="F27" s="5">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{15A5CD32-C48D-BD45-9DC0-2BE879B356AA}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{893D4AFD-5334-0649-AC62-68F467156418}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{CA51F6E8-E362-A143-B78B-10F5265ADD42}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{D9331A68-1538-9543-8757-58799051261B}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{699D2084-7979-7442-9EE8-15086153562F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/InputData/messages.xlsx
+++ b/InputData/messages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexb8z/Downloads/hdg-chatbot/InputData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattd\IdeaProjects\BoG\hdg-chatbot\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EB776B-62A5-774A-B9CC-D4DB07F40D94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB004E8-7D71-4AE9-BB8E-3A334C22B24F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="2300" windowWidth="15940" windowHeight="8960" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
+    <workbookView xWindow="5532" yWindow="2304" windowWidth="15948" windowHeight="8964" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -642,21 +642,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA6A2BB-9C23-4233-A3B0-E435AB329052}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -712,7 +712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -737,7 +737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -762,7 +762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -791,7 +791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -820,7 +820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>104</v>
       </c>
@@ -847,7 +847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>105</v>
       </c>
@@ -874,7 +874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>106</v>
       </c>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>107</v>
       </c>
@@ -930,7 +930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>108</v>
       </c>
@@ -957,7 +957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>109</v>
       </c>
@@ -984,7 +984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>110</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>200</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>300</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>400</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>500</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>-1</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
@@ -1181,9 +1181,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>66</v>
@@ -1206,7 +1206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>1100</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1200</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>1300</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>1400</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>1500</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>911</v>
       </c>

--- a/InputData/messages.xlsx
+++ b/InputData/messages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattd\IdeaProjects\BoG\hdg-chatbot\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serena\Desktop\Main Folder\Georgia Tech\Bits of Good\hdg-chatbot\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEB9E68-1F51-41F0-8111-0B517B1E57DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1306245F-9AAE-4280-AEDC-B4D4F3AEA947}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5532" yWindow="2304" windowWidth="15948" windowHeight="8964" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -225,9 +225,6 @@
     <t>low data do you consent</t>
   </si>
   <si>
-    <t>data collect? pls?</t>
-  </si>
-  <si>
     <t>low data data?</t>
   </si>
   <si>
@@ -256,6 +253,36 @@
   </si>
   <si>
     <t>108, 107, 107</t>
+  </si>
+  <si>
+    <t>Error! Something bad happened</t>
+  </si>
+  <si>
+    <t>Low Data Version - Error! Something bad happened</t>
+  </si>
+  <si>
+    <t>Congrats! You finished!</t>
+  </si>
+  <si>
+    <t>110, 201, 301, 400, 500</t>
+  </si>
+  <si>
+    <t>Low Data Version - Congrats! You finished!</t>
+  </si>
+  <si>
+    <t>You're free &lt;3</t>
+  </si>
+  <si>
+    <t>Low Data Version - you're free &lt;3</t>
+  </si>
+  <si>
+    <t>Thank you for consenting! if angry at data collect write "no data pls" otherwise we'll sneaky sneaky. respond to continue thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the number of modules you have completed: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Data Version: This is the number of modules you have completed: </t>
   </si>
 </sst>
 </file>
@@ -640,23 +667,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA6A2BB-9C23-4233-A3B0-E435AB329052}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -694,7 +721,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -712,7 +739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -737,7 +764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -762,7 +789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -791,7 +818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -820,7 +847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>104</v>
       </c>
@@ -847,7 +874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>105</v>
       </c>
@@ -874,7 +901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>106</v>
       </c>
@@ -903,7 +930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>107</v>
       </c>
@@ -912,7 +939,7 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="5">
         <v>106</v>
@@ -930,7 +957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>108</v>
       </c>
@@ -957,7 +984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>109</v>
       </c>
@@ -984,7 +1011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>110</v>
       </c>
@@ -1011,7 +1038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>200</v>
       </c>
@@ -1036,7 +1063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>201</v>
       </c>
@@ -1060,7 +1087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>300</v>
       </c>
@@ -1084,7 +1111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>301</v>
       </c>
@@ -1108,7 +1135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>400</v>
       </c>
@@ -1132,7 +1159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>500</v>
       </c>
@@ -1156,7 +1183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>-1</v>
       </c>
@@ -1181,12 +1208,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
@@ -1199,19 +1226,19 @@
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>1100</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
@@ -1224,19 +1251,19 @@
         <v>2</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>1200</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
@@ -1249,19 +1276,19 @@
         <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>1300</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
@@ -1274,19 +1301,19 @@
         <v>2</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>1400</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
@@ -1299,19 +1326,19 @@
         <v>2</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>1500</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5">
@@ -1324,19 +1351,19 @@
         <v>2</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>911</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5">
@@ -1349,10 +1376,102 @@
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>4200</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>9696</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>1738</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>4201</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>28</v>
       </c>
     </row>
